--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H2">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J2">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>0.04958397758000001</v>
+        <v>0.1844045830266667</v>
       </c>
       <c r="R2">
-        <v>0.4462557982200001</v>
+        <v>1.65964124724</v>
       </c>
       <c r="S2">
-        <v>0.01922689912239772</v>
+        <v>0.09845568436221937</v>
       </c>
       <c r="T2">
-        <v>0.01922689912239772</v>
+        <v>0.09845568436221937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H3">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J3">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>0.02646457029000001</v>
+        <v>0.07738510347000001</v>
       </c>
       <c r="R3">
-        <v>0.23818113261</v>
+        <v>0.69646593123</v>
       </c>
       <c r="S3">
-        <v>0.01026201704900484</v>
+        <v>0.04131677855575979</v>
       </c>
       <c r="T3">
-        <v>0.01026201704900484</v>
+        <v>0.04131677855575978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H4">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J4">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>0.00124746756</v>
+        <v>0.007389413696111112</v>
       </c>
       <c r="R4">
-        <v>0.01122720804</v>
+        <v>0.066504723265</v>
       </c>
       <c r="S4">
-        <v>0.0004837234547366788</v>
+        <v>0.003945291220777135</v>
       </c>
       <c r="T4">
-        <v>0.0004837234547366787</v>
+        <v>0.003945291220777134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.018885</v>
+        <v>0.05522166666666666</v>
       </c>
       <c r="H5">
-        <v>0.056655</v>
+        <v>0.165665</v>
       </c>
       <c r="I5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="J5">
-        <v>0.03513089677264534</v>
+        <v>0.1626033416795164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>0.01330255623</v>
+        <v>0.03537214654722222</v>
       </c>
       <c r="R5">
-        <v>0.11972300607</v>
+        <v>0.318349318925</v>
       </c>
       <c r="S5">
-        <v>0.005158257146506101</v>
+        <v>0.01888558754076011</v>
       </c>
       <c r="T5">
-        <v>0.005158257146506101</v>
+        <v>0.0188855875407601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.498792</v>
       </c>
       <c r="I6">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J6">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>0.4365385463786666</v>
+        <v>0.555214020928</v>
       </c>
       <c r="R6">
-        <v>3.928846917408</v>
+        <v>4.996926188352001</v>
       </c>
       <c r="S6">
-        <v>0.1692740882015533</v>
+        <v>0.2964350207611754</v>
       </c>
       <c r="T6">
-        <v>0.1692740882015533</v>
+        <v>0.2964350207611754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.498792</v>
       </c>
       <c r="I7">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J7">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>0.232994721456</v>
@@ -889,10 +889,10 @@
         <v>2.096952493104</v>
       </c>
       <c r="S7">
-        <v>0.09034704806119886</v>
+        <v>0.1243985066814628</v>
       </c>
       <c r="T7">
-        <v>0.09034704806119886</v>
+        <v>0.1243985066814628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J8">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>0.010982734784</v>
+        <v>0.02224839547466667</v>
       </c>
       <c r="R8">
-        <v>0.09884461305600001</v>
+        <v>0.200235559272</v>
       </c>
       <c r="S8">
-        <v>0.00425871307801637</v>
+        <v>0.01187866899220637</v>
       </c>
       <c r="T8">
-        <v>0.00425871307801637</v>
+        <v>0.01187866899220637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="J9">
-        <v>0.3092932709032091</v>
+        <v>0.4895738146440669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>0.117116029072</v>
+        <v>0.1065001280933333</v>
       </c>
       <c r="R9">
-        <v>1.054044261648</v>
+        <v>0.95850115284</v>
       </c>
       <c r="S9">
-        <v>0.04541342156244058</v>
+        <v>0.05686161820922232</v>
       </c>
       <c r="T9">
-        <v>0.04541342156244058</v>
+        <v>0.05686161820922232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H10">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I10">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J10">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>0.28864255098</v>
+        <v>0.09151048909066668</v>
       </c>
       <c r="R10">
-        <v>2.59778295882</v>
+        <v>0.8235944018160002</v>
       </c>
       <c r="S10">
-        <v>0.1119252928260944</v>
+        <v>0.04885848107386846</v>
       </c>
       <c r="T10">
-        <v>0.1119252928260944</v>
+        <v>0.04885848107386845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H11">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I11">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J11">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>0.15405785199</v>
+        <v>0.03840223789800001</v>
       </c>
       <c r="R11">
-        <v>1.38652066791</v>
+        <v>0.3456201410820001</v>
       </c>
       <c r="S11">
-        <v>0.05973814372689156</v>
+        <v>0.02050338744965786</v>
       </c>
       <c r="T11">
-        <v>0.05973814372689155</v>
+        <v>0.02050338744965785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H12">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I12">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J12">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>0.007261866360000001</v>
+        <v>0.003666985116777779</v>
       </c>
       <c r="R12">
-        <v>0.06535679724</v>
+        <v>0.03300286605100001</v>
       </c>
       <c r="S12">
-        <v>0.002815892930710976</v>
+        <v>0.001957844665749007</v>
       </c>
       <c r="T12">
-        <v>0.002815892930710976</v>
+        <v>0.001957844665749006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.109935</v>
+        <v>0.02740366666666667</v>
       </c>
       <c r="H13">
-        <v>0.329805</v>
+        <v>0.08221100000000001</v>
       </c>
       <c r="I13">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422162</v>
       </c>
       <c r="J13">
-        <v>0.2045070233889735</v>
+        <v>0.08069165679422161</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>0.07743799413000001</v>
+        <v>0.01755337301055556</v>
       </c>
       <c r="R13">
-        <v>0.69694194717</v>
+        <v>0.157980357095</v>
       </c>
       <c r="S13">
-        <v>0.03002769390527658</v>
+        <v>0.009371943604946304</v>
       </c>
       <c r="T13">
-        <v>0.03002769390527658</v>
+        <v>0.009371943604946302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H14">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I14">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J14">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N14">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q14">
-        <v>0.3951026021808889</v>
+        <v>0.1568660602</v>
       </c>
       <c r="R14">
-        <v>3.555923419628</v>
+        <v>1.4117945418</v>
       </c>
       <c r="S14">
-        <v>0.1532067059943356</v>
+        <v>0.08375255677871465</v>
       </c>
       <c r="T14">
-        <v>0.1532067059943356</v>
+        <v>0.08375255677871465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H15">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I15">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J15">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q15">
-        <v>0.210879019746</v>
+        <v>0.06582860415</v>
       </c>
       <c r="R15">
-        <v>1.897911177714</v>
+        <v>0.59245743735</v>
       </c>
       <c r="S15">
-        <v>0.08177136723540884</v>
+        <v>0.03514663337440285</v>
       </c>
       <c r="T15">
-        <v>0.08177136723540883</v>
+        <v>0.03514663337440284</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H16">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I16">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J16">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N16">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q16">
-        <v>0.009940261010666668</v>
+        <v>0.006285896991666667</v>
       </c>
       <c r="R16">
-        <v>0.089462349096</v>
+        <v>0.056573072925</v>
       </c>
       <c r="S16">
-        <v>0.003854478906901587</v>
+        <v>0.003356111220161276</v>
       </c>
       <c r="T16">
-        <v>0.003854478906901586</v>
+        <v>0.003356111220161275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1504823333333333</v>
+        <v>0.046975</v>
       </c>
       <c r="H17">
-        <v>0.451447</v>
+        <v>0.140925</v>
       </c>
       <c r="I17">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="J17">
-        <v>0.2799353623743785</v>
+        <v>0.1383205621355497</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N17">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q17">
-        <v>0.1059994546353333</v>
+        <v>0.03008975795833333</v>
       </c>
       <c r="R17">
-        <v>0.953995091718</v>
+        <v>0.270807821625</v>
       </c>
       <c r="S17">
-        <v>0.04110281023773258</v>
+        <v>0.01606526076227096</v>
       </c>
       <c r="T17">
-        <v>0.04110281023773258</v>
+        <v>0.01606526076227095</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H18">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I18">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J18">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N18">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q18">
-        <v>0.03484487659288888</v>
+        <v>0.035884676592</v>
       </c>
       <c r="R18">
-        <v>0.313603889336</v>
+        <v>0.3229620893280001</v>
       </c>
       <c r="S18">
-        <v>0.01351160112362797</v>
+        <v>0.01915923310578111</v>
       </c>
       <c r="T18">
-        <v>0.01351160112362797</v>
+        <v>0.01915923310578111</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H19">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I19">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J19">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>4.204062</v>
       </c>
       <c r="O19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q19">
-        <v>0.018597836052</v>
+        <v>0.015058950084</v>
       </c>
       <c r="R19">
-        <v>0.167380524468</v>
+        <v>0.135530550756</v>
       </c>
       <c r="S19">
-        <v>0.007211577915260412</v>
+        <v>0.00804014310252971</v>
       </c>
       <c r="T19">
-        <v>0.007211577915260412</v>
+        <v>0.008040143102529708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H20">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I20">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J20">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N20">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q20">
-        <v>0.0008766511946666666</v>
+        <v>0.001437961662</v>
       </c>
       <c r="R20">
-        <v>0.007889860751999999</v>
+        <v>0.012941654958</v>
       </c>
       <c r="S20">
-        <v>0.0003399340857274049</v>
+        <v>0.0007677439312794695</v>
       </c>
       <c r="T20">
-        <v>0.0003399340857274049</v>
+        <v>0.0007677439312794694</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.01327133333333333</v>
+        <v>0.010746</v>
       </c>
       <c r="H21">
-        <v>0.039814</v>
+        <v>0.032238</v>
       </c>
       <c r="I21">
-        <v>0.02468805090647076</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="J21">
-        <v>0.02468805090647077</v>
+        <v>0.03164220884957143</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N21">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q21">
-        <v>0.009348300657333332</v>
+        <v>0.006883332390000001</v>
       </c>
       <c r="R21">
-        <v>0.08413470591599999</v>
+        <v>0.06194999151</v>
       </c>
       <c r="S21">
-        <v>0.003624937781854979</v>
+        <v>0.003675088709981133</v>
       </c>
       <c r="T21">
-        <v>0.00362493778185498</v>
+        <v>0.003675088709981133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H22">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I22">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J22">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N22">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q22">
-        <v>0.2066939896755555</v>
+        <v>0.1101963897653333</v>
       </c>
       <c r="R22">
-        <v>1.86024590708</v>
+        <v>0.9917675078880002</v>
       </c>
       <c r="S22">
-        <v>0.08014856174630072</v>
+        <v>0.05883509395763132</v>
       </c>
       <c r="T22">
-        <v>0.08014856174630074</v>
+        <v>0.05883509395763132</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H23">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I23">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J23">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>4.204062</v>
       </c>
       <c r="O23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q23">
-        <v>0.11031925806</v>
+        <v>0.046243747764</v>
       </c>
       <c r="R23">
-        <v>0.99287332254</v>
+        <v>0.4161937298760001</v>
       </c>
       <c r="S23">
-        <v>0.04277787602971446</v>
+        <v>0.0246900579088106</v>
       </c>
       <c r="T23">
-        <v>0.04277787602971446</v>
+        <v>0.02469005790881059</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H24">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I24">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J24">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N24">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q24">
-        <v>0.005200148506666667</v>
+        <v>0.00441576179088889</v>
       </c>
       <c r="R24">
-        <v>0.04680133656</v>
+        <v>0.039741856118</v>
       </c>
       <c r="S24">
-        <v>0.002016432235551344</v>
+        <v>0.002357624967702864</v>
       </c>
       <c r="T24">
-        <v>0.002016432235551344</v>
+        <v>0.002357624967702863</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.07872333333333333</v>
+        <v>0.03299933333333333</v>
       </c>
       <c r="H25">
-        <v>0.23617</v>
+        <v>0.098998</v>
       </c>
       <c r="I25">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="J25">
-        <v>0.1464453956543226</v>
+        <v>0.09716841589707399</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N25">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q25">
-        <v>0.05545255855333332</v>
+        <v>0.02113766796777778</v>
       </c>
       <c r="R25">
-        <v>0.49907302698</v>
+        <v>0.19023901171</v>
       </c>
       <c r="S25">
-        <v>0.02150252564275608</v>
+        <v>0.01128563906292922</v>
       </c>
       <c r="T25">
-        <v>0.02150252564275608</v>
+        <v>0.01128563906292922</v>
       </c>
     </row>
   </sheetData>
